--- a/Team-Data/2011-12/3-27-2011-12.xlsx
+++ b/Team-Data/2011-12/3-27-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,88 +733,88 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>49.2</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
         <v>81.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
         <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R2" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
         <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -759,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -777,31 +844,31 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -962,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,16 +1211,16 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1344,16 +1411,16 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.426</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O6" t="n">
         <v>18.3</v>
@@ -1436,10 +1503,10 @@
         <v>0.706</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
         <v>42.9</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
         <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1487,16 +1554,16 @@
         <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1505,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>5</v>
@@ -1514,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
@@ -1532,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.569</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,7 +1661,7 @@
         <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.439</v>
@@ -1603,7 +1670,7 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N7" t="n">
         <v>0.333</v>
@@ -1615,13 +1682,13 @@
         <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
         <v>42.8</v>
@@ -1630,34 +1697,34 @@
         <v>21.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W7" t="n">
         <v>8.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,19 +1733,19 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
@@ -1687,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
@@ -1696,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1723,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1863,10 +1930,10 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2066,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.417</v>
+        <v>0.426</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.455</v>
@@ -2152,7 +2219,7 @@
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O10" t="n">
         <v>15.4</v>
@@ -2161,37 +2228,37 @@
         <v>19.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S10" t="n">
         <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U10" t="n">
         <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AB10" t="n">
         <v>97.90000000000001</v>
@@ -2200,13 +2267,13 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2218,19 +2285,19 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2248,19 +2315,19 @@
         <v>22</v>
       </c>
       <c r="AT10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>7</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2304,100 +2371,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
         <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>19.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.789</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T11" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>14.9</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
         <v>20.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2418,16 +2485,16 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
         <v>15</v>
@@ -2439,22 +2506,22 @@
         <v>16</v>
       </c>
       <c r="AW11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX11" t="n">
         <v>18</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>20</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>19</v>
       </c>
       <c r="AZ11" t="n">
         <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2585,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2621,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2764,13 +2831,13 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -2782,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2794,13 +2861,13 @@
         <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
@@ -2868,7 +2935,7 @@
         <v>36.2</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.456</v>
@@ -2877,28 +2944,28 @@
         <v>5.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="O14" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U14" t="n">
         <v>21.7</v>
@@ -2913,22 +2980,22 @@
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,25 +3010,25 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
         <v>3.9</v>
@@ -3062,61 +3129,61 @@
         <v>11.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.324</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V15" t="n">
         <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3149,16 +3216,16 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
@@ -3170,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3355,10 +3422,10 @@
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.46</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J17" t="n">
         <v>85.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
         <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
@@ -3468,25 +3535,25 @@
         <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3495,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3513,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
@@ -3528,13 +3595,13 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>12</v>
@@ -3543,10 +3610,10 @@
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J18" t="n">
         <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N18" t="n">
         <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P18" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T18" t="n">
         <v>44.5</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V18" t="n">
         <v>15.5</v>
@@ -3638,25 +3705,25 @@
         <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
@@ -3668,16 +3735,16 @@
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3695,13 +3762,13 @@
         <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,13 +3777,13 @@
         <v>24</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -3895,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4056,7 +4123,7 @@
         <v>27</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -4223,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4250,7 +4317,7 @@
         <v>13</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J22" t="n">
         <v>78.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
         <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>43.4</v>
@@ -4360,7 +4427,7 @@
         <v>18.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W22" t="n">
         <v>7.7</v>
@@ -4378,13 +4445,13 @@
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4456,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
@@ -4611,16 +4678,16 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M24" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="P24" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.733</v>
@@ -4718,7 +4785,7 @@
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
@@ -4730,28 +4797,28 @@
         <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4763,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4772,7 +4839,7 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.456</v>
@@ -4882,16 +4949,16 @@
         <v>19</v>
       </c>
       <c r="N25" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O25" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P25" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
@@ -4900,37 +4967,37 @@
         <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4948,10 +5015,10 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
@@ -4978,22 +5045,22 @@
         <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.46</v>
+        <v>0.469</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
         <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O26" t="n">
         <v>17.6</v>
@@ -5076,16 +5143,16 @@
         <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.3</v>
@@ -5097,22 +5164,22 @@
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z26" t="n">
         <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
         <v>96.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5127,19 +5194,19 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN26" t="n">
         <v>19</v>
@@ -5148,7 +5215,7 @@
         <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5157,16 +5224,16 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
@@ -5175,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5187,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -5339,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5366,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.708</v>
+        <v>0.702</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R28" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S28" t="n">
         <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
         <v>7.2</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5503,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5518,25 +5585,25 @@
         <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5673,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
@@ -5688,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5715,7 +5782,7 @@
         <v>22</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5894,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6076,10 +6143,10 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2011-12</t>
+          <t>2012-03-27</t>
         </is>
       </c>
     </row>
